--- a/src/co/jp/PetHotel/PETHOTEL_UML_.xlsx
+++ b/src/co/jp/PetHotel/PETHOTEL_UML_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\培训课件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDC1484-F16C-49CB-AB72-F4951E6ED274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BE75C2-A11E-4C3C-B5B0-C0FC75FB0432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{15AAD26D-D079-48CE-A9B7-47E2035288BC}"/>
   </bookViews>
@@ -3894,13 +3894,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
+      <xdr:colOff>174170</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>108857</xdr:colOff>
+      <xdr:colOff>54428</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>119743</xdr:rowOff>
     </xdr:to>
@@ -3917,7 +3917,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1426028" y="11811000"/>
+          <a:off x="1371599" y="11811000"/>
           <a:ext cx="3472543" cy="664029"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3989,14 +3989,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>48986</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>234043</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>59871</xdr:rowOff>
+      <xdr:rowOff>59872</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>185058</xdr:colOff>
+      <xdr:colOff>185059</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
@@ -4016,8 +4016,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="3162300" y="11010900"/>
-          <a:ext cx="2051958" cy="789213"/>
+          <a:off x="3107872" y="11021786"/>
+          <a:ext cx="2106387" cy="789213"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -4132,13 +4132,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>185057</xdr:colOff>
       <xdr:row>71</xdr:row>
       <xdr:rowOff>43543</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>108858</xdr:colOff>
+      <xdr:colOff>65315</xdr:colOff>
       <xdr:row>75</xdr:row>
       <xdr:rowOff>10886</xdr:rowOff>
     </xdr:to>
@@ -4155,7 +4155,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1426029" y="12921343"/>
+          <a:off x="1382486" y="12921343"/>
           <a:ext cx="3472543" cy="664029"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4219,14 +4219,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>48986</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>234042</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>119743</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>48987</xdr:colOff>
+      <xdr:colOff>5444</xdr:colOff>
       <xdr:row>71</xdr:row>
       <xdr:rowOff>43543</xdr:rowOff>
     </xdr:to>
@@ -4247,8 +4247,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3162300" y="12475029"/>
-          <a:ext cx="1" cy="446314"/>
+          <a:off x="3107871" y="12475029"/>
+          <a:ext cx="10887" cy="446314"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4756,15 +4756,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
+      <xdr:colOff>228599</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>87084</xdr:rowOff>
+      <xdr:rowOff>130627</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>217713</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>130628</xdr:colOff>
       <xdr:row>113</xdr:row>
-      <xdr:rowOff>10884</xdr:rowOff>
+      <xdr:rowOff>54427</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4779,7 +4779,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5105399" y="19409227"/>
+          <a:off x="5257799" y="19452770"/>
           <a:ext cx="1338943" cy="794657"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4850,13 +4850,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>97971</xdr:colOff>
+      <xdr:colOff>119743</xdr:colOff>
       <xdr:row>113</xdr:row>
       <xdr:rowOff>141515</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>185057</xdr:colOff>
+      <xdr:colOff>206829</xdr:colOff>
       <xdr:row>113</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -4875,7 +4875,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5127171" y="20334515"/>
+          <a:off x="5148943" y="20334515"/>
           <a:ext cx="2002972" cy="10885"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -10445,15 +10445,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>119744</xdr:colOff>
+      <xdr:colOff>108858</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>87086</xdr:rowOff>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>141514</xdr:colOff>
+      <xdr:colOff>130628</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>97971</xdr:rowOff>
+      <xdr:rowOff>119742</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10468,7 +10468,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1556658" y="13835743"/>
+          <a:off x="1545772" y="13857514"/>
           <a:ext cx="3135085" cy="1404257"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
@@ -10516,9 +10516,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>10887</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>97971</xdr:rowOff>
+      <xdr:rowOff>119742</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
@@ -10543,8 +10543,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3124201" y="15240000"/>
-          <a:ext cx="1" cy="413658"/>
+          <a:off x="3113315" y="15261771"/>
+          <a:ext cx="10887" cy="391887"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10573,15 +10573,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>21771</xdr:colOff>
+      <xdr:colOff>10885</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>119744</xdr:rowOff>
+      <xdr:rowOff>141515</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>119744</xdr:colOff>
+      <xdr:colOff>108858</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>92530</xdr:rowOff>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10598,7 +10598,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="979714" y="9862458"/>
+          <a:off x="968828" y="9884229"/>
           <a:ext cx="576944" cy="4675415"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
@@ -10807,68 +10807,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>141514</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>92529</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>97971</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>141514</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="1306" name="连接符: 肘形 1305">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1A0DB0B-03EC-45CD-8D42-BC7755C8A9BE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="1276" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4691743" y="14537872"/>
-          <a:ext cx="435428" cy="5796642"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>10887</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>75</xdr:row>
       <xdr:rowOff>10886</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>48987</xdr:colOff>
+      <xdr:colOff>5444</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>87086</xdr:rowOff>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10887,8 +10835,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3124201" y="13585372"/>
-          <a:ext cx="38100" cy="250371"/>
+          <a:off x="3113315" y="13585372"/>
+          <a:ext cx="5443" cy="272142"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10944,6 +10892,58 @@
         <a:xfrm rot="10800000">
           <a:off x="968829" y="16339457"/>
           <a:ext cx="424544" cy="3347358"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>141515</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>168730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>119743</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="连接符: 肘形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{276A7E60-3176-6AB5-32B2-020AFF861E01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="79" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4691744" y="16355787"/>
+          <a:ext cx="457199" cy="3978727"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -11268,8 +11268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD903C4C-E534-4A83-8DE1-C435133C73B0}">
   <dimension ref="B2:CS118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U121" sqref="U121"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
